--- a/StructureDefinition-cdm-practitioner-role.xlsx
+++ b/StructureDefinition-cdm-practitioner-role.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$113</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3692" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3974" uniqueCount="391">
   <si>
     <t>Path</t>
   </si>
@@ -777,6 +777,9 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
+    <t>NUCCTaxonomy</t>
+  </si>
+  <si>
     <t>PractitionerRole.code.coding.id</t>
   </si>
   <si>
@@ -897,10 +900,19 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
-    <t>Type</t>
+    <t>NUCCType</t>
   </si>
   <si>
     <t>http://ibm.com/fhir/cdm/nucc-provider-taxonomy-type</t>
+  </si>
+  <si>
+    <t>IBMType</t>
+  </si>
+  <si>
+    <t>http://ibm.com/fhir/cdm/wh-payer-provider-type</t>
+  </si>
+  <si>
+    <t>http://ibm.com/fhir/cdm/ValueSet/wh-practitioner-role-type</t>
   </si>
   <si>
     <t>PractitionerRole.code.text</t>
@@ -1040,20 +1052,30 @@
     <t>PractitionerRole.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint
+    <t xml:space="preserve">ContactPoint {http://ibm.com/fhir/cdm/StructureDefinition/cdm-contact-point}
 </t>
   </si>
   <si>
-    <t>Contact details that are specific to the role/location/service</t>
-  </si>
-  <si>
-    <t>Contact details that are specific to the role/location/service.</t>
+    <t>Details of a Technology mediated contact point (phone, fax, email, etc.)</t>
+  </si>
+  <si>
+    <t>Details for all kinds of technology mediated contact points for a person or organization, including telephone, email, etc.</t>
   </si>
   <si>
     <t>Often practitioners have a dedicated line for each location (or service) that they work at, and need to be able to define separate contact details for each of these.</t>
   </si>
   <si>
-    <t>.telecom</t>
+    <t>cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+  </si>
+  <si>
+    <t>XTN</t>
+  </si>
+  <si>
+    <t>TEL</t>
+  </si>
+  <si>
+    <t>ContactPoint</t>
   </si>
   <si>
     <t>PractitionerRole.availableTime</t>
@@ -1356,7 +1378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM105"/>
+  <dimension ref="A1:AM113"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1366,7 +1388,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="46.96875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.0703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1389,7 +1411,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="45.28515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.2265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -5534,7 +5556,7 @@
         <v>233</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>47</v>
+        <v>243</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>40</v>
@@ -5646,7 +5668,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5755,7 +5777,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5866,7 +5888,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5892,16 +5914,16 @@
         <v>66</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -5911,7 +5933,7 @@
         <v>40</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>40</v>
@@ -5950,7 +5972,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5965,10 +5987,10 @@
         <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
@@ -5979,7 +6001,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6005,13 +6027,13 @@
         <v>52</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6061,7 +6083,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6076,10 +6098,10 @@
         <v>63</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
@@ -6090,7 +6112,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6116,14 +6138,14 @@
         <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -6172,7 +6194,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6187,10 +6209,10 @@
         <v>63</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
@@ -6201,7 +6223,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6227,14 +6249,14 @@
         <v>52</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>40</v>
@@ -6283,7 +6305,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6298,10 +6320,10 @@
         <v>63</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
@@ -6312,7 +6334,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6338,16 +6360,16 @@
         <v>192</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>40</v>
@@ -6396,7 +6418,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6411,10 +6433,10 @@
         <v>63</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
@@ -6428,7 +6450,7 @@
         <v>233</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>40</v>
@@ -6540,7 +6562,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6649,7 +6671,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6760,7 +6782,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6786,16 +6808,16 @@
         <v>66</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -6805,7 +6827,7 @@
         <v>40</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>40</v>
@@ -6844,7 +6866,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6859,10 +6881,10 @@
         <v>63</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
@@ -6873,7 +6895,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6899,13 +6921,13 @@
         <v>52</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6955,7 +6977,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6970,10 +6992,10 @@
         <v>63</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -6984,7 +7006,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7010,14 +7032,14 @@
         <v>72</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -7066,7 +7088,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7081,10 +7103,10 @@
         <v>63</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
@@ -7095,7 +7117,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7121,14 +7143,14 @@
         <v>52</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
@@ -7177,7 +7199,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7192,10 +7214,10 @@
         <v>63</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
@@ -7206,7 +7228,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7232,16 +7254,16 @@
         <v>192</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>40</v>
@@ -7290,7 +7312,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7305,10 +7327,10 @@
         <v>63</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
@@ -7319,9 +7341,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="C54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7342,19 +7366,19 @@
         <v>51</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>52</v>
+        <v>234</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>286</v>
+        <v>235</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>287</v>
+        <v>236</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>288</v>
+        <v>237</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>289</v>
+        <v>238</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7403,13 +7427,13 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
@@ -7418,10 +7442,10 @@
         <v>63</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>291</v>
+        <v>241</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
@@ -7432,11 +7456,9 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7454,23 +7476,19 @@
         <v>40</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7494,13 +7512,13 @@
         <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>224</v>
+        <v>40</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>40</v>
@@ -7518,28 +7536,28 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>218</v>
+        <v>123</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>229</v>
+        <v>124</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>40</v>
@@ -7547,18 +7565,18 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>40</v>
@@ -7570,15 +7588,17 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>40</v>
@@ -7615,31 +7635,31 @@
         <v>40</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>40</v>
@@ -7656,18 +7676,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>40</v>
@@ -7676,21 +7696,23 @@
         <v>40</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>98</v>
+        <v>247</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>126</v>
+        <v>248</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
       </c>
@@ -7699,7 +7721,7 @@
         <v>40</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>40</v>
+        <v>287</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>40</v>
@@ -7726,37 +7748,37 @@
         <v>40</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>129</v>
+        <v>252</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>40</v>
+        <v>253</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>124</v>
+        <v>254</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
@@ -7767,7 +7789,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7778,7 +7800,7 @@
         <v>41</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>40</v>
@@ -7790,20 +7812,18 @@
         <v>51</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>234</v>
+        <v>52</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>40</v>
       </c>
@@ -7851,13 +7871,13 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>40</v>
@@ -7866,10 +7886,10 @@
         <v>63</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
@@ -7880,7 +7900,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7903,19 +7923,17 @@
         <v>51</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>40</v>
@@ -7940,13 +7958,11 @@
         <v>40</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>40</v>
+        <v>288</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>40</v>
@@ -7964,7 +7980,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7979,10 +7995,10 @@
         <v>63</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
@@ -7993,7 +8009,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8004,7 +8020,7 @@
         <v>41</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>40</v>
@@ -8016,16 +8032,18 @@
         <v>51</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
       </c>
@@ -8049,37 +8067,37 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>298</v>
+        <v>40</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>226</v>
+        <v>40</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>40</v>
@@ -8088,13 +8106,13 @@
         <v>63</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>40</v>
@@ -8102,11 +8120,9 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
         <v>40</v>
       </c>
@@ -8127,16 +8143,20 @@
         <v>51</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>40</v>
       </c>
@@ -8160,13 +8180,13 @@
         <v>40</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>298</v>
+        <v>40</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>40</v>
@@ -8184,13 +8204,13 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
@@ -8199,13 +8219,13 @@
         <v>63</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>40</v>
@@ -8213,7 +8233,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8233,19 +8253,23 @@
         <v>40</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>121</v>
+        <v>290</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>40</v>
       </c>
@@ -8293,7 +8317,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>123</v>
+        <v>294</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8305,13 +8329,13 @@
         <v>40</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>124</v>
+        <v>296</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
@@ -8322,18 +8346,20 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="B63" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="C63" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>40</v>
@@ -8342,21 +8368,23 @@
         <v>40</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>40</v>
       </c>
@@ -8380,31 +8408,31 @@
         <v>40</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>40</v>
+        <v>224</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>129</v>
+        <v>218</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8416,16 +8444,16 @@
         <v>40</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>124</v>
+        <v>229</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>40</v>
@@ -8433,7 +8461,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>304</v>
+        <v>231</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8444,7 +8472,7 @@
         <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>40</v>
@@ -8453,23 +8481,19 @@
         <v>40</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>234</v>
+        <v>52</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>235</v>
+        <v>121</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>40</v>
       </c>
@@ -8505,37 +8529,37 @@
         <v>40</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>240</v>
+        <v>123</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>241</v>
+        <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>242</v>
+        <v>124</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
@@ -8546,20 +8570,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>40</v>
@@ -8568,23 +8590,21 @@
         <v>40</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>234</v>
+        <v>97</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>235</v>
+        <v>98</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>236</v>
+        <v>126</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>40</v>
       </c>
@@ -8620,19 +8640,19 @@
         <v>40</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AC65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>240</v>
+        <v>129</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8644,13 +8664,13 @@
         <v>40</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>241</v>
+        <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>242</v>
+        <v>124</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
@@ -8661,7 +8681,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>306</v>
+        <v>233</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8672,7 +8692,7 @@
         <v>41</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>40</v>
@@ -8681,19 +8701,23 @@
         <v>40</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>52</v>
+        <v>234</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>121</v>
+        <v>235</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>40</v>
       </c>
@@ -8741,25 +8765,25 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>123</v>
+        <v>240</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>124</v>
+        <v>242</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
@@ -8770,18 +8794,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>40</v>
@@ -8790,21 +8814,23 @@
         <v>40</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>98</v>
+        <v>290</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>126</v>
+        <v>291</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>40</v>
       </c>
@@ -8840,37 +8866,37 @@
         <v>40</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>129</v>
+        <v>294</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>124</v>
+        <v>296</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>40</v>
@@ -8881,7 +8907,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8889,10 +8915,10 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>40</v>
@@ -8904,20 +8930,16 @@
         <v>51</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>246</v>
+        <v>299</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>40</v>
       </c>
@@ -8926,7 +8948,7 @@
         <v>40</v>
       </c>
       <c r="R68" t="s" s="2">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>40</v>
@@ -8941,37 +8963,37 @@
         <v>40</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>40</v>
+        <v>302</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>40</v>
@@ -8980,13 +9002,13 @@
         <v>63</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>40</v>
+        <v>305</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>40</v>
@@ -8994,9 +9016,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="B69" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="C69" t="s" s="2">
         <v>40</v>
       </c>
@@ -9017,17 +9041,15 @@
         <v>51</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>40</v>
@@ -9052,13 +9074,13 @@
         <v>40</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>40</v>
+        <v>302</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>40</v>
@@ -9076,13 +9098,13 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>40</v>
@@ -9091,13 +9113,13 @@
         <v>63</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>40</v>
+        <v>305</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>40</v>
@@ -9105,7 +9127,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9113,7 +9135,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>50</v>
@@ -9125,21 +9147,19 @@
         <v>40</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>262</v>
+        <v>121</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>263</v>
+        <v>122</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" t="s" s="2">
-        <v>264</v>
-      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>40</v>
       </c>
@@ -9187,7 +9207,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9199,13 +9219,13 @@
         <v>40</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>266</v>
+        <v>40</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>267</v>
+        <v>124</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
@@ -9216,18 +9236,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>40</v>
@@ -9236,21 +9256,21 @@
         <v>40</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>269</v>
+        <v>98</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>40</v>
       </c>
@@ -9286,37 +9306,37 @@
         <v>40</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>272</v>
+        <v>129</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>273</v>
+        <v>40</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>274</v>
+        <v>124</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>40</v>
@@ -9327,7 +9347,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9338,7 +9358,7 @@
         <v>41</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>40</v>
@@ -9350,19 +9370,19 @@
         <v>51</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>40</v>
@@ -9399,25 +9419,25 @@
         <v>40</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>40</v>
@@ -9426,10 +9446,10 @@
         <v>63</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>40</v>
@@ -9440,10 +9460,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>40</v>
@@ -9555,7 +9575,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9664,7 +9684,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9775,7 +9795,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9801,16 +9821,16 @@
         <v>66</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>40</v>
@@ -9820,7 +9840,7 @@
         <v>40</v>
       </c>
       <c r="R76" t="s" s="2">
-        <v>314</v>
+        <v>251</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>40</v>
@@ -9859,7 +9879,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -9874,10 +9894,10 @@
         <v>63</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>40</v>
@@ -9888,7 +9908,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9914,13 +9934,13 @@
         <v>52</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -9970,7 +9990,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -9985,10 +10005,10 @@
         <v>63</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>40</v>
@@ -9999,7 +10019,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10025,14 +10045,14 @@
         <v>72</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>40</v>
@@ -10081,7 +10101,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10096,10 +10116,10 @@
         <v>63</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>40</v>
@@ -10110,7 +10130,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10136,14 +10156,14 @@
         <v>52</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>40</v>
@@ -10192,7 +10212,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10207,10 +10227,10 @@
         <v>63</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>40</v>
@@ -10221,7 +10241,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10247,16 +10267,16 @@
         <v>192</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>40</v>
@@ -10305,7 +10325,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10320,10 +10340,10 @@
         <v>63</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>40</v>
@@ -10334,9 +10354,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="B81" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="C81" t="s" s="2">
         <v>40</v>
       </c>
@@ -10357,19 +10379,19 @@
         <v>51</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>52</v>
+        <v>234</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>286</v>
+        <v>235</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>287</v>
+        <v>236</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>288</v>
+        <v>237</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>289</v>
+        <v>238</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>40</v>
@@ -10418,13 +10440,13 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>40</v>
@@ -10433,10 +10455,10 @@
         <v>63</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>291</v>
+        <v>241</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>40</v>
@@ -10447,11 +10469,9 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
         <v>40</v>
       </c>
@@ -10469,16 +10489,16 @@
         <v>40</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>295</v>
+        <v>121</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>296</v>
+        <v>122</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10505,13 +10525,13 @@
         <v>40</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>298</v>
+        <v>40</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>40</v>
@@ -10529,28 +10549,28 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>294</v>
+        <v>123</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>300</v>
+        <v>124</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>40</v>
@@ -10558,18 +10578,18 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>40</v>
@@ -10581,15 +10601,17 @@
         <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>40</v>
@@ -10626,31 +10648,31 @@
         <v>40</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AC83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>40</v>
@@ -10667,18 +10689,18 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>40</v>
@@ -10687,21 +10709,23 @@
         <v>40</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>98</v>
+        <v>247</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>126</v>
+        <v>248</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>40</v>
       </c>
@@ -10710,7 +10734,7 @@
         <v>40</v>
       </c>
       <c r="R84" t="s" s="2">
-        <v>40</v>
+        <v>318</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>40</v>
@@ -10737,37 +10761,37 @@
         <v>40</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AC84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>129</v>
+        <v>252</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>40</v>
+        <v>253</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>124</v>
+        <v>254</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>40</v>
@@ -10778,7 +10802,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10789,7 +10813,7 @@
         <v>41</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>40</v>
@@ -10801,20 +10825,18 @@
         <v>51</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>234</v>
+        <v>52</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>40</v>
       </c>
@@ -10862,13 +10884,13 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>40</v>
@@ -10877,10 +10899,10 @@
         <v>63</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>40</v>
@@ -10891,7 +10913,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10914,19 +10936,17 @@
         <v>51</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>40</v>
@@ -10975,7 +10995,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -10990,10 +11010,10 @@
         <v>63</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>40</v>
@@ -11004,7 +11024,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11015,7 +11035,7 @@
         <v>41</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>40</v>
@@ -11027,16 +11047,18 @@
         <v>51</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>317</v>
+        <v>52</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
+      <c r="N87" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>40</v>
       </c>
@@ -11084,13 +11106,13 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>40</v>
@@ -11099,21 +11121,21 @@
         <v>63</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>40</v>
+        <v>274</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>321</v>
+        <v>40</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>322</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11124,7 +11146,7 @@
         <v>41</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>40</v>
@@ -11133,19 +11155,23 @@
         <v>40</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>324</v>
+        <v>192</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>40</v>
       </c>
@@ -11193,13 +11219,13 @@
         <v>40</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>40</v>
@@ -11208,10 +11234,10 @@
         <v>63</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>328</v>
+        <v>283</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>40</v>
@@ -11222,7 +11248,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11233,7 +11259,7 @@
         <v>41</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>40</v>
@@ -11245,17 +11271,19 @@
         <v>51</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>330</v>
+        <v>52</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M89" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="N89" t="s" s="2">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>40</v>
@@ -11304,13 +11332,13 @@
         <v>40</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>40</v>
@@ -11319,10 +11347,10 @@
         <v>63</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>40</v>
@@ -11333,9 +11361,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="B90" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="C90" t="s" s="2">
         <v>40</v>
       </c>
@@ -11344,7 +11374,7 @@
         <v>41</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>40</v>
@@ -11353,20 +11383,18 @@
         <v>40</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>336</v>
+        <v>141</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>40</v>
@@ -11391,13 +11419,13 @@
         <v>40</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>40</v>
+        <v>302</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>40</v>
@@ -11415,7 +11443,7 @@
         <v>40</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -11430,13 +11458,13 @@
         <v>63</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>40</v>
+        <v>303</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>40</v>
+        <v>305</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>40</v>
@@ -11444,7 +11472,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11553,7 +11581,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11623,16 +11651,16 @@
         <v>40</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AC92" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AE92" t="s" s="2">
         <v>129</v>
@@ -11664,11 +11692,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>344</v>
+        <v>40</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -11681,25 +11709,25 @@
         <v>40</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>97</v>
+        <v>234</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>345</v>
+        <v>235</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>346</v>
+        <v>236</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>100</v>
+        <v>237</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>40</v>
@@ -11748,7 +11776,7 @@
         <v>40</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>347</v>
+        <v>240</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>41</v>
@@ -11760,13 +11788,13 @@
         <v>40</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>64</v>
+        <v>242</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>40</v>
@@ -11777,7 +11805,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11785,10 +11813,10 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>40</v>
@@ -11797,19 +11825,23 @@
         <v>40</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>349</v>
+        <v>290</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>40</v>
       </c>
@@ -11833,13 +11865,13 @@
         <v>40</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>351</v>
+        <v>40</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>352</v>
+        <v>40</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>40</v>
@@ -11857,13 +11889,13 @@
         <v>40</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>348</v>
+        <v>294</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>40</v>
@@ -11872,10 +11904,10 @@
         <v>63</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>340</v>
+        <v>296</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>40</v>
@@ -11886,7 +11918,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11897,7 +11929,7 @@
         <v>41</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>40</v>
@@ -11906,16 +11938,16 @@
         <v>40</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>192</v>
+        <v>321</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -11966,13 +11998,13 @@
         <v>40</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>40</v>
@@ -11984,18 +12016,18 @@
         <v>40</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>40</v>
+        <v>325</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>40</v>
+        <v>326</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12006,7 +12038,7 @@
         <v>41</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>40</v>
@@ -12018,17 +12050,15 @@
         <v>40</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>40</v>
@@ -12077,13 +12107,13 @@
         <v>40</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>40</v>
@@ -12092,10 +12122,10 @@
         <v>63</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>40</v>
+        <v>331</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>40</v>
@@ -12106,7 +12136,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12117,7 +12147,7 @@
         <v>41</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>40</v>
@@ -12129,18 +12159,18 @@
         <v>40</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O97" t="s" s="2">
         <v>40</v>
       </c>
@@ -12188,28 +12218,28 @@
         <v>40</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>63</v>
+        <v>338</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>40</v>
+        <v>339</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>340</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>40</v>
+        <v>341</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>40</v>
@@ -12217,7 +12247,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12240,15 +12270,17 @@
         <v>40</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M98" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>40</v>
@@ -12297,7 +12329,7 @@
         <v>40</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>41</v>
@@ -12315,7 +12347,7 @@
         <v>40</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>40</v>
@@ -12326,7 +12358,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12435,7 +12467,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12546,11 +12578,11 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12572,10 +12604,10 @@
         <v>97</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="M101" t="s" s="2">
         <v>100</v>
@@ -12630,7 +12662,7 @@
         <v>40</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>41</v>
@@ -12659,7 +12691,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12667,10 +12699,10 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>40</v>
@@ -12682,13 +12714,13 @@
         <v>40</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12715,13 +12747,13 @@
         <v>40</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>40</v>
+        <v>358</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>40</v>
+        <v>359</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>40</v>
@@ -12739,13 +12771,13 @@
         <v>40</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>40</v>
@@ -12757,7 +12789,7 @@
         <v>40</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>124</v>
+        <v>347</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>40</v>
@@ -12768,7 +12800,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12791,13 +12823,13 @@
         <v>40</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -12848,7 +12880,7 @@
         <v>40</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>41</v>
@@ -12866,7 +12898,7 @@
         <v>40</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>40</v>
@@ -12877,7 +12909,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12900,15 +12932,17 @@
         <v>40</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>52</v>
+        <v>364</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M104" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>40</v>
@@ -12957,7 +12991,7 @@
         <v>40</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>41</v>
@@ -12975,7 +13009,7 @@
         <v>40</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>40</v>
@@ -12986,7 +13020,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12997,7 +13031,7 @@
         <v>41</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>40</v>
@@ -13009,18 +13043,18 @@
         <v>40</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M105" s="2"/>
-      <c r="N105" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>40</v>
       </c>
@@ -13068,13 +13102,13 @@
         <v>40</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>40</v>
@@ -13086,17 +13120,897 @@
         <v>40</v>
       </c>
       <c r="AK105" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK107" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AL105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM105" t="s" s="2">
+      <c r="AL107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M113" s="2"/>
+      <c r="N113" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM113" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM105">
+  <autoFilter ref="A1:AM113">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13106,7 +14020,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI104">
+  <conditionalFormatting sqref="A2:AI112">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-cdm-practitioner-role.xlsx
+++ b/StructureDefinition-cdm-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-role.xlsx
+++ b/StructureDefinition-cdm-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-role.xlsx
+++ b/StructureDefinition-cdm-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-role.xlsx
+++ b/StructureDefinition-cdm-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-role.xlsx
+++ b/StructureDefinition-cdm-practitioner-role.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>IBM Health Data Connect Common Data Model definition of what fields we currently define for a practitioner role</t>
+    <t>Health Data Connect Common Data Model definition of what fields we currently define for a practitioner role</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1017,7 +1017,7 @@
     <t>http://ibm.com/fhir/cdm/nucc-provider-taxonomy-type</t>
   </si>
   <si>
-    <t>IBMType</t>
+    <t>HDCType</t>
   </si>
   <si>
     <t>http://ibm.com/fhir/cdm/wh-payer-provider-type</t>
@@ -6044,7 +6044,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>84</v>

--- a/StructureDefinition-cdm-practitioner-role.xlsx
+++ b/StructureDefinition-cdm-practitioner-role.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-role.xlsx
+++ b/StructureDefinition-cdm-practitioner-role.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1649,37 +1649,37 @@
     <col min="1" max="1" width="46.96875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="15.921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="87.890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="87.89453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.2265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.23046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="46.96875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="85.47265625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-cdm-practitioner-role.xlsx
+++ b/StructureDefinition-cdm-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-role.xlsx
+++ b/StructureDefinition-cdm-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-role.xlsx
+++ b/StructureDefinition-cdm-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-role.xlsx
+++ b/StructureDefinition-cdm-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-role.xlsx
+++ b/StructureDefinition-cdm-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-role.xlsx
+++ b/StructureDefinition-cdm-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-role.xlsx
+++ b/StructureDefinition-cdm-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-role.xlsx
+++ b/StructureDefinition-cdm-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-role.xlsx
+++ b/StructureDefinition-cdm-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-role.xlsx
+++ b/StructureDefinition-cdm-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-role.xlsx
+++ b/StructureDefinition-cdm-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-role.xlsx
+++ b/StructureDefinition-cdm-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-role.xlsx
+++ b/StructureDefinition-cdm-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-role.xlsx
+++ b/StructureDefinition-cdm-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-role.xlsx
+++ b/StructureDefinition-cdm-practitioner-role.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4326" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4326" uniqueCount="428">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -274,227 +274,231 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+</t>
+  </si>
+  <si>
+    <t>Metadata about a resource</t>
+  </si>
+  <si>
+    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>PractitionerRole.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>PractitionerRole.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>PractitionerRole.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>PractitionerRole.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>PractitionerRole.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifiers that are specific to a role/location</t>
+  </si>
+  <si>
+    <t>Business Identifiers that are specific to a role/location.</t>
+  </si>
+  <si>
+    <t>Often, specific identities are assigned for the agent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:type}
+</t>
+  </si>
+  <si>
+    <t>Slice based on entry system</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>PRD-7 (or XCN.1)</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>./Identifiers</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
-</t>
-  </si>
-  <si>
-    <t>Metadata about a resource</t>
-  </si>
-  <si>
-    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>PractitionerRole.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>PractitionerRole.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>PractitionerRole.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>PractitionerRole.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>PractitionerRole.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifiers that are specific to a role/location</t>
-  </si>
-  <si>
-    <t>Business Identifiers that are specific to a role/location.</t>
-  </si>
-  <si>
-    <t>Often, specific identities are assigned for the agent.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:type}
-</t>
-  </si>
-  <si>
-    <t>Slice based on entry system</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>PRD-7 (or XCN.1)</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>./Identifiers</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -2939,13 +2943,13 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2996,7 +3000,7 @@
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -3014,7 +3018,7 @@
         <v>74</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>74</v>
@@ -3025,7 +3029,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3054,7 +3058,7 @@
         <v>132</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
         <v>134</v>
@@ -3095,10 +3099,10 @@
         <v>74</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>74</v>
@@ -3107,7 +3111,7 @@
         <v>149</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
@@ -3125,7 +3129,7 @@
         <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>74</v>
@@ -3136,7 +3140,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3162,16 +3166,16 @@
         <v>106</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>74</v>
@@ -3196,13 +3200,13 @@
         <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>74</v>
@@ -3220,7 +3224,7 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -3238,7 +3242,7 @@
         <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
@@ -3249,7 +3253,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3272,19 +3276,19 @@
         <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>74</v>
@@ -3309,11 +3313,11 @@
         <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>74</v>
@@ -3331,7 +3335,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3346,10 +3350,10 @@
         <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
@@ -3360,7 +3364,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3386,16 +3390,16 @@
         <v>100</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>74</v>
@@ -3408,7 +3412,7 @@
         <v>74</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>74</v>
@@ -3444,7 +3448,7 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3459,13 +3463,13 @@
         <v>97</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>74</v>
@@ -3473,7 +3477,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3496,16 +3500,16 @@
         <v>85</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3519,7 +3523,7 @@
         <v>74</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>74</v>
@@ -3555,7 +3559,7 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3570,13 +3574,13 @@
         <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>74</v>
@@ -3584,7 +3588,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3607,13 +3611,13 @@
         <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3664,7 +3668,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3679,13 +3683,13 @@
         <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>74</v>
@@ -3693,7 +3697,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3716,16 +3720,16 @@
         <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3775,7 +3779,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3790,13 +3794,13 @@
         <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>74</v>
@@ -3807,7 +3811,7 @@
         <v>142</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>74</v>
@@ -3940,13 +3944,13 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3997,7 +4001,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4015,7 +4019,7 @@
         <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
@@ -4026,7 +4030,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4055,7 +4059,7 @@
         <v>132</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>134</v>
@@ -4096,10 +4100,10 @@
         <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>74</v>
@@ -4108,7 +4112,7 @@
         <v>149</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4126,7 +4130,7 @@
         <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
@@ -4137,7 +4141,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4163,16 +4167,16 @@
         <v>106</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>74</v>
@@ -4182,7 +4186,7 @@
         <v>74</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>74</v>
@@ -4197,13 +4201,13 @@
         <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>74</v>
@@ -4221,7 +4225,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4239,7 +4243,7 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -4250,7 +4254,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4273,19 +4277,19 @@
         <v>85</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
@@ -4295,7 +4299,7 @@
         <v>74</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>74</v>
@@ -4310,13 +4314,13 @@
         <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>74</v>
@@ -4334,7 +4338,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4349,10 +4353,10 @@
         <v>97</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4363,7 +4367,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4389,16 +4393,16 @@
         <v>100</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>74</v>
@@ -4411,7 +4415,7 @@
         <v>74</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>74</v>
@@ -4447,7 +4451,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4462,13 +4466,13 @@
         <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
@@ -4476,7 +4480,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4499,16 +4503,16 @@
         <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4522,7 +4526,7 @@
         <v>74</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>74</v>
@@ -4558,7 +4562,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4573,13 +4577,13 @@
         <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>74</v>
@@ -4587,7 +4591,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4610,13 +4614,13 @@
         <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4667,7 +4671,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4682,13 +4686,13 @@
         <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>74</v>
@@ -4696,7 +4700,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4719,16 +4723,16 @@
         <v>85</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4778,7 +4782,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4793,13 +4797,13 @@
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>74</v>
@@ -4810,7 +4814,7 @@
         <v>142</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>74</v>
@@ -4943,13 +4947,13 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5000,7 +5004,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5018,7 +5022,7 @@
         <v>74</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -5029,7 +5033,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5058,7 +5062,7 @@
         <v>132</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>134</v>
@@ -5099,10 +5103,10 @@
         <v>74</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>74</v>
@@ -5111,7 +5115,7 @@
         <v>149</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5129,7 +5133,7 @@
         <v>74</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
@@ -5140,7 +5144,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5166,16 +5170,16 @@
         <v>106</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>74</v>
@@ -5185,7 +5189,7 @@
         <v>74</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>74</v>
@@ -5200,13 +5204,13 @@
         <v>74</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>74</v>
@@ -5224,7 +5228,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5242,7 +5246,7 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>74</v>
@@ -5253,7 +5257,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5276,19 +5280,19 @@
         <v>85</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>74</v>
@@ -5298,7 +5302,7 @@
         <v>74</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>74</v>
@@ -5313,13 +5317,13 @@
         <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>74</v>
@@ -5337,7 +5341,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5352,10 +5356,10 @@
         <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
@@ -5366,7 +5370,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5392,16 +5396,16 @@
         <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>74</v>
@@ -5414,7 +5418,7 @@
         <v>74</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>74</v>
@@ -5450,7 +5454,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5465,13 +5469,13 @@
         <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>74</v>
@@ -5479,7 +5483,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5502,16 +5506,16 @@
         <v>85</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5525,7 +5529,7 @@
         <v>74</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>74</v>
@@ -5561,7 +5565,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5576,13 +5580,13 @@
         <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>74</v>
@@ -5590,7 +5594,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5613,13 +5617,13 @@
         <v>85</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5670,7 +5674,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5685,13 +5689,13 @@
         <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>74</v>
@@ -5699,7 +5703,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5722,16 +5726,16 @@
         <v>85</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5781,7 +5785,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5796,13 +5800,13 @@
         <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>74</v>
@@ -5810,7 +5814,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5833,70 +5837,70 @@
         <v>85</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P38" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="Q38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P38" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="Q38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5911,21 +5915,21 @@
         <v>97</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5948,17 +5952,17 @@
         <v>85</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>74</v>
@@ -6007,7 +6011,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6022,21 +6026,21 @@
         <v>97</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6059,13 +6063,13 @@
         <v>85</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6116,7 +6120,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6134,7 +6138,7 @@
         <v>74</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
@@ -6145,7 +6149,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6168,13 +6172,13 @@
         <v>85</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6225,7 +6229,7 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6243,7 +6247,7 @@
         <v>74</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -6254,7 +6258,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6277,19 +6281,19 @@
         <v>85</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>74</v>
@@ -6314,22 +6318,22 @@
         <v>74</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>74</v>
@@ -6338,7 +6342,7 @@
         <v>149</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6353,13 +6357,13 @@
         <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>74</v>
@@ -6367,10 +6371,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>74</v>
@@ -6392,19 +6396,19 @@
         <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>74</v>
@@ -6429,13 +6433,13 @@
         <v>74</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>74</v>
@@ -6453,7 +6457,7 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6468,13 +6472,13 @@
         <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>74</v>
@@ -6482,7 +6486,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6505,13 +6509,13 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6562,7 +6566,7 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6580,7 +6584,7 @@
         <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6591,7 +6595,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6620,7 +6624,7 @@
         <v>132</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>134</v>
@@ -6661,10 +6665,10 @@
         <v>74</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>74</v>
@@ -6673,7 +6677,7 @@
         <v>149</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6691,7 +6695,7 @@
         <v>74</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -6702,7 +6706,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6725,19 +6729,19 @@
         <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>74</v>
@@ -6774,10 +6778,10 @@
         <v>74</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>74</v>
@@ -6786,7 +6790,7 @@
         <v>149</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6801,10 +6805,10 @@
         <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>
@@ -6815,10 +6819,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>74</v>
@@ -6840,19 +6844,19 @@
         <v>85</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>74</v>
@@ -6901,7 +6905,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -6916,10 +6920,10 @@
         <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>74</v>
@@ -6930,7 +6934,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6953,13 +6957,13 @@
         <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7010,7 +7014,7 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -7028,7 +7032,7 @@
         <v>74</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>74</v>
@@ -7039,7 +7043,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7068,7 +7072,7 @@
         <v>132</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>134</v>
@@ -7109,10 +7113,10 @@
         <v>74</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>74</v>
@@ -7121,7 +7125,7 @@
         <v>149</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -7139,7 +7143,7 @@
         <v>74</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
@@ -7150,7 +7154,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7176,16 +7180,16 @@
         <v>100</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>74</v>
@@ -7195,7 +7199,7 @@
         <v>74</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>74</v>
@@ -7234,7 +7238,7 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7249,10 +7253,10 @@
         <v>97</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
@@ -7263,7 +7267,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7286,16 +7290,16 @@
         <v>85</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7345,7 +7349,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7360,10 +7364,10 @@
         <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
@@ -7374,7 +7378,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7400,14 +7404,14 @@
         <v>106</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>74</v>
@@ -7456,7 +7460,7 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7471,10 +7475,10 @@
         <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>74</v>
@@ -7485,7 +7489,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7508,17 +7512,17 @@
         <v>85</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>74</v>
@@ -7567,7 +7571,7 @@
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7582,10 +7586,10 @@
         <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
@@ -7596,7 +7600,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7619,19 +7623,19 @@
         <v>85</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>74</v>
@@ -7680,7 +7684,7 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -7695,10 +7699,10 @@
         <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
@@ -7709,10 +7713,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>74</v>
@@ -7734,19 +7738,19 @@
         <v>85</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>74</v>
@@ -7795,7 +7799,7 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -7810,10 +7814,10 @@
         <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
@@ -7824,7 +7828,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7847,13 +7851,13 @@
         <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7904,7 +7908,7 @@
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -7922,7 +7926,7 @@
         <v>74</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>74</v>
@@ -7933,7 +7937,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7962,7 +7966,7 @@
         <v>132</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>134</v>
@@ -8003,10 +8007,10 @@
         <v>74</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>74</v>
@@ -8015,7 +8019,7 @@
         <v>149</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -8033,7 +8037,7 @@
         <v>74</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
@@ -8044,7 +8048,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8070,16 +8074,16 @@
         <v>100</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>74</v>
@@ -8089,7 +8093,7 @@
         <v>74</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>74</v>
@@ -8128,7 +8132,7 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8143,10 +8147,10 @@
         <v>97</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -8157,7 +8161,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8180,16 +8184,16 @@
         <v>85</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8239,7 +8243,7 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8254,10 +8258,10 @@
         <v>97</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
@@ -8268,7 +8272,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8294,14 +8298,14 @@
         <v>106</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>74</v>
@@ -8350,7 +8354,7 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8365,10 +8369,10 @@
         <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
@@ -8379,7 +8383,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8402,17 +8406,17 @@
         <v>85</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>74</v>
@@ -8461,7 +8465,7 @@
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -8476,10 +8480,10 @@
         <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
@@ -8490,7 +8494,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8513,19 +8517,19 @@
         <v>85</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>74</v>
@@ -8574,7 +8578,7 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -8589,10 +8593,10 @@
         <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>
@@ -8603,10 +8607,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>74</v>
@@ -8628,19 +8632,19 @@
         <v>85</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>74</v>
@@ -8689,7 +8693,7 @@
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -8704,10 +8708,10 @@
         <v>97</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>74</v>
@@ -8718,7 +8722,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8741,13 +8745,13 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8798,7 +8802,7 @@
         <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -8816,7 +8820,7 @@
         <v>74</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>74</v>
@@ -8827,7 +8831,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8856,7 +8860,7 @@
         <v>132</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>134</v>
@@ -8897,10 +8901,10 @@
         <v>74</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC65" t="s" s="2">
         <v>74</v>
@@ -8909,7 +8913,7 @@
         <v>149</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -8927,7 +8931,7 @@
         <v>74</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>74</v>
@@ -8938,7 +8942,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8964,16 +8968,16 @@
         <v>100</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>74</v>
@@ -8983,7 +8987,7 @@
         <v>74</v>
       </c>
       <c r="R66" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>74</v>
@@ -9022,7 +9026,7 @@
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -9037,10 +9041,10 @@
         <v>97</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>74</v>
@@ -9051,7 +9055,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9074,16 +9078,16 @@
         <v>85</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9133,7 +9137,7 @@
         <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -9148,10 +9152,10 @@
         <v>97</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>74</v>
@@ -9162,7 +9166,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9188,14 +9192,14 @@
         <v>106</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>74</v>
@@ -9224,7 +9228,7 @@
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>74</v>
@@ -9242,7 +9246,7 @@
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9257,10 +9261,10 @@
         <v>97</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>74</v>
@@ -9271,7 +9275,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9294,17 +9298,17 @@
         <v>85</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>74</v>
@@ -9353,7 +9357,7 @@
         <v>74</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -9368,10 +9372,10 @@
         <v>97</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>74</v>
@@ -9382,7 +9386,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9405,19 +9409,19 @@
         <v>85</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>74</v>
@@ -9466,7 +9470,7 @@
         <v>74</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
@@ -9481,10 +9485,10 @@
         <v>97</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>74</v>
@@ -9495,7 +9499,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9518,19 +9522,19 @@
         <v>85</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>74</v>
@@ -9579,7 +9583,7 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -9594,10 +9598,10 @@
         <v>97</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>74</v>
@@ -9608,10 +9612,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C72" t="s" s="2">
         <v>74</v>
@@ -9633,19 +9637,19 @@
         <v>85</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>74</v>
@@ -9670,13 +9674,13 @@
         <v>74</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>74</v>
@@ -9694,7 +9698,7 @@
         <v>74</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
@@ -9709,13 +9713,13 @@
         <v>97</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>74</v>
@@ -9723,7 +9727,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9746,13 +9750,13 @@
         <v>74</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9803,7 +9807,7 @@
         <v>74</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
@@ -9821,7 +9825,7 @@
         <v>74</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>74</v>
@@ -9832,7 +9836,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9861,7 +9865,7 @@
         <v>132</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>134</v>
@@ -9902,10 +9906,10 @@
         <v>74</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>74</v>
@@ -9914,7 +9918,7 @@
         <v>149</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
@@ -9932,7 +9936,7 @@
         <v>74</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>74</v>
@@ -9943,7 +9947,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9966,19 +9970,19 @@
         <v>85</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>74</v>
@@ -10027,7 +10031,7 @@
         <v>74</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
@@ -10042,10 +10046,10 @@
         <v>97</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>74</v>
@@ -10056,7 +10060,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10079,19 +10083,19 @@
         <v>85</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>74</v>
@@ -10140,7 +10144,7 @@
         <v>74</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
@@ -10155,10 +10159,10 @@
         <v>97</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>74</v>
@@ -10169,7 +10173,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10192,13 +10196,13 @@
         <v>85</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10228,19 +10232,19 @@
         <v>110</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>74</v>
@@ -10249,7 +10253,7 @@
         <v>149</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
@@ -10264,13 +10268,13 @@
         <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>74</v>
@@ -10278,10 +10282,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>74</v>
@@ -10303,13 +10307,13 @@
         <v>85</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10339,10 +10343,10 @@
         <v>110</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>74</v>
@@ -10360,7 +10364,7 @@
         <v>74</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
@@ -10375,13 +10379,13 @@
         <v>97</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>74</v>
@@ -10389,7 +10393,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10412,13 +10416,13 @@
         <v>74</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10469,7 +10473,7 @@
         <v>74</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -10487,7 +10491,7 @@
         <v>74</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>74</v>
@@ -10498,7 +10502,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10527,7 +10531,7 @@
         <v>132</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>134</v>
@@ -10568,10 +10572,10 @@
         <v>74</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>74</v>
@@ -10580,7 +10584,7 @@
         <v>149</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
@@ -10598,7 +10602,7 @@
         <v>74</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>74</v>
@@ -10609,7 +10613,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10632,19 +10636,19 @@
         <v>85</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>74</v>
@@ -10681,10 +10685,10 @@
         <v>74</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AC81" t="s" s="2">
         <v>74</v>
@@ -10693,7 +10697,7 @@
         <v>149</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
@@ -10708,10 +10712,10 @@
         <v>97</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>74</v>
@@ -10722,10 +10726,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>74</v>
@@ -10747,19 +10751,19 @@
         <v>85</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>74</v>
@@ -10808,7 +10812,7 @@
         <v>74</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
@@ -10823,10 +10827,10 @@
         <v>97</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>74</v>
@@ -10837,7 +10841,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10860,13 +10864,13 @@
         <v>74</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10917,7 +10921,7 @@
         <v>74</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>75</v>
@@ -10935,7 +10939,7 @@
         <v>74</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>74</v>
@@ -10946,7 +10950,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10975,7 +10979,7 @@
         <v>132</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M84" t="s" s="2">
         <v>134</v>
@@ -11016,10 +11020,10 @@
         <v>74</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC84" t="s" s="2">
         <v>74</v>
@@ -11028,7 +11032,7 @@
         <v>149</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>75</v>
@@ -11046,7 +11050,7 @@
         <v>74</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>74</v>
@@ -11057,7 +11061,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11083,16 +11087,16 @@
         <v>100</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>74</v>
@@ -11102,7 +11106,7 @@
         <v>74</v>
       </c>
       <c r="R85" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="S85" t="s" s="2">
         <v>74</v>
@@ -11141,7 +11145,7 @@
         <v>74</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>75</v>
@@ -11156,10 +11160,10 @@
         <v>97</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>74</v>
@@ -11170,7 +11174,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11193,16 +11197,16 @@
         <v>85</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -11252,7 +11256,7 @@
         <v>74</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>75</v>
@@ -11267,10 +11271,10 @@
         <v>97</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>74</v>
@@ -11281,7 +11285,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11307,14 +11311,14 @@
         <v>106</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>74</v>
@@ -11363,7 +11367,7 @@
         <v>74</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>75</v>
@@ -11378,10 +11382,10 @@
         <v>97</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>74</v>
@@ -11392,7 +11396,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11415,17 +11419,17 @@
         <v>85</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>74</v>
@@ -11474,7 +11478,7 @@
         <v>74</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>75</v>
@@ -11489,10 +11493,10 @@
         <v>97</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>74</v>
@@ -11503,7 +11507,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11526,19 +11530,19 @@
         <v>85</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>74</v>
@@ -11587,7 +11591,7 @@
         <v>74</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>75</v>
@@ -11602,10 +11606,10 @@
         <v>97</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>74</v>
@@ -11616,10 +11620,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C90" t="s" s="2">
         <v>74</v>
@@ -11641,19 +11645,19 @@
         <v>85</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>74</v>
@@ -11702,7 +11706,7 @@
         <v>74</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>75</v>
@@ -11717,10 +11721,10 @@
         <v>97</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>74</v>
@@ -11731,7 +11735,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11754,13 +11758,13 @@
         <v>74</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11811,7 +11815,7 @@
         <v>74</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>75</v>
@@ -11829,7 +11833,7 @@
         <v>74</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>74</v>
@@ -11840,7 +11844,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11869,7 +11873,7 @@
         <v>132</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M92" t="s" s="2">
         <v>134</v>
@@ -11910,10 +11914,10 @@
         <v>74</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC92" t="s" s="2">
         <v>74</v>
@@ -11922,7 +11926,7 @@
         <v>149</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>75</v>
@@ -11940,7 +11944,7 @@
         <v>74</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>74</v>
@@ -11951,7 +11955,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11977,16 +11981,16 @@
         <v>100</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>74</v>
@@ -11996,7 +12000,7 @@
         <v>74</v>
       </c>
       <c r="R93" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>74</v>
@@ -12035,7 +12039,7 @@
         <v>74</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>75</v>
@@ -12050,10 +12054,10 @@
         <v>97</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>74</v>
@@ -12064,7 +12068,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12087,16 +12091,16 @@
         <v>85</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -12146,7 +12150,7 @@
         <v>74</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>75</v>
@@ -12161,10 +12165,10 @@
         <v>97</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>74</v>
@@ -12175,7 +12179,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12201,14 +12205,14 @@
         <v>106</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>74</v>
@@ -12257,7 +12261,7 @@
         <v>74</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>75</v>
@@ -12272,10 +12276,10 @@
         <v>97</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>74</v>
@@ -12286,7 +12290,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12309,17 +12313,17 @@
         <v>85</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>74</v>
@@ -12368,7 +12372,7 @@
         <v>74</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>75</v>
@@ -12383,10 +12387,10 @@
         <v>97</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>74</v>
@@ -12397,7 +12401,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12420,19 +12424,19 @@
         <v>85</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>74</v>
@@ -12481,7 +12485,7 @@
         <v>74</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>75</v>
@@ -12496,10 +12500,10 @@
         <v>97</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>74</v>
@@ -12510,7 +12514,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12533,19 +12537,19 @@
         <v>85</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>74</v>
@@ -12594,7 +12598,7 @@
         <v>74</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>75</v>
@@ -12609,10 +12613,10 @@
         <v>97</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>74</v>
@@ -12623,10 +12627,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B99" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="C99" t="s" s="2">
         <v>74</v>
@@ -12648,13 +12652,13 @@
         <v>85</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -12684,10 +12688,10 @@
         <v>110</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>74</v>
@@ -12705,7 +12709,7 @@
         <v>74</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>75</v>
@@ -12720,13 +12724,13 @@
         <v>97</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>74</v>
@@ -12734,7 +12738,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12757,13 +12761,13 @@
         <v>74</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12814,7 +12818,7 @@
         <v>74</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>75</v>
@@ -12832,7 +12836,7 @@
         <v>74</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>74</v>
@@ -12843,7 +12847,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12872,7 +12876,7 @@
         <v>132</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M101" t="s" s="2">
         <v>134</v>
@@ -12913,10 +12917,10 @@
         <v>74</v>
       </c>
       <c r="AA101" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC101" t="s" s="2">
         <v>74</v>
@@ -12925,7 +12929,7 @@
         <v>149</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>75</v>
@@ -12943,7 +12947,7 @@
         <v>74</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>74</v>
@@ -12954,7 +12958,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12977,19 +12981,19 @@
         <v>85</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>74</v>
@@ -13038,7 +13042,7 @@
         <v>74</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>75</v>
@@ -13053,10 +13057,10 @@
         <v>97</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>74</v>
@@ -13067,7 +13071,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13090,19 +13094,19 @@
         <v>85</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>74</v>
@@ -13151,7 +13155,7 @@
         <v>74</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>75</v>
@@ -13166,10 +13170,10 @@
         <v>97</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>74</v>
@@ -13180,7 +13184,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13203,13 +13207,13 @@
         <v>85</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -13260,7 +13264,7 @@
         <v>74</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>75</v>
@@ -13278,18 +13282,18 @@
         <v>74</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13312,13 +13316,13 @@
         <v>74</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -13369,7 +13373,7 @@
         <v>74</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>75</v>
@@ -13384,10 +13388,10 @@
         <v>97</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>74</v>
@@ -13398,7 +13402,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13421,17 +13425,17 @@
         <v>74</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>74</v>
@@ -13480,7 +13484,7 @@
         <v>74</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>75</v>
@@ -13492,16 +13496,16 @@
         <v>96</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>74</v>
@@ -13509,7 +13513,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13532,16 +13536,16 @@
         <v>74</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -13591,7 +13595,7 @@
         <v>74</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>75</v>
@@ -13609,7 +13613,7 @@
         <v>74</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>74</v>
@@ -13620,7 +13624,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13643,13 +13647,13 @@
         <v>74</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -13700,7 +13704,7 @@
         <v>74</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>75</v>
@@ -13718,7 +13722,7 @@
         <v>74</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>74</v>
@@ -13729,7 +13733,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13758,7 +13762,7 @@
         <v>132</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M109" t="s" s="2">
         <v>134</v>
@@ -13811,7 +13815,7 @@
         <v>74</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>75</v>
@@ -13829,7 +13833,7 @@
         <v>74</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>74</v>
@@ -13840,11 +13844,11 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -13866,10 +13870,10 @@
         <v>131</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>134</v>
@@ -13924,7 +13928,7 @@
         <v>74</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>75</v>
@@ -13953,7 +13957,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13979,10 +13983,10 @@
         <v>106</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -14009,13 +14013,13 @@
         <v>74</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>74</v>
@@ -14033,7 +14037,7 @@
         <v>74</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>75</v>
@@ -14051,7 +14055,7 @@
         <v>74</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>74</v>
@@ -14062,7 +14066,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14085,13 +14089,13 @@
         <v>74</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -14142,7 +14146,7 @@
         <v>74</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>75</v>
@@ -14160,7 +14164,7 @@
         <v>74</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>74</v>
@@ -14171,7 +14175,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14194,16 +14198,16 @@
         <v>74</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -14253,7 +14257,7 @@
         <v>74</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>75</v>
@@ -14271,7 +14275,7 @@
         <v>74</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>74</v>
@@ -14282,7 +14286,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14305,16 +14309,16 @@
         <v>74</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
@@ -14364,7 +14368,7 @@
         <v>74</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>75</v>
@@ -14382,7 +14386,7 @@
         <v>74</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>74</v>
@@ -14393,7 +14397,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14416,13 +14420,13 @@
         <v>74</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -14473,7 +14477,7 @@
         <v>74</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>75</v>
@@ -14491,7 +14495,7 @@
         <v>74</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>74</v>
@@ -14502,7 +14506,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14525,13 +14529,13 @@
         <v>74</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -14582,7 +14586,7 @@
         <v>74</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>75</v>
@@ -14600,7 +14604,7 @@
         <v>74</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>74</v>
@@ -14611,7 +14615,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14640,7 +14644,7 @@
         <v>132</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M117" t="s" s="2">
         <v>134</v>
@@ -14693,7 +14697,7 @@
         <v>74</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>75</v>
@@ -14711,7 +14715,7 @@
         <v>74</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>74</v>
@@ -14722,11 +14726,11 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -14748,10 +14752,10 @@
         <v>131</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M118" t="s" s="2">
         <v>134</v>
@@ -14806,7 +14810,7 @@
         <v>74</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>75</v>
@@ -14835,7 +14839,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14858,13 +14862,13 @@
         <v>74</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -14915,7 +14919,7 @@
         <v>74</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>84</v>
@@ -14933,7 +14937,7 @@
         <v>74</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>74</v>
@@ -14944,7 +14948,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14967,13 +14971,13 @@
         <v>74</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -15024,7 +15028,7 @@
         <v>74</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>75</v>
@@ -15042,7 +15046,7 @@
         <v>74</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>74</v>
@@ -15053,7 +15057,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15076,13 +15080,13 @@
         <v>74</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -15133,7 +15137,7 @@
         <v>74</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>75</v>
@@ -15151,7 +15155,7 @@
         <v>74</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>74</v>
@@ -15162,7 +15166,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15185,17 +15189,17 @@
         <v>74</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>74</v>
@@ -15244,7 +15248,7 @@
         <v>74</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>75</v>
@@ -15262,7 +15266,7 @@
         <v>74</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>74</v>
